--- a/Parameters/ShortFNNames.xlsx
+++ b/Parameters/ShortFNNames.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\JNB\MLE\DES.LM.Reports\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ddd\04. Настройки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BE8C06-5569-4D40-9825-206313B0545B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06819B5C-6D06-4359-9658-BFAF26D5A146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,12 +221,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -509,9 +515,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F53492B-E9B6-44FD-A10D-37455B40CAC6}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -520,31 +528,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -552,10 +560,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -568,15 +576,15 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -584,7 +592,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -592,102 +600,163 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+    </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="drfTskpo2IbinKXTc5SGdJSXSEkLGl+3lLzCqyQtguHcLpe906/q1NhiMtKu4nTwch5qdf71B6CeDNTRH6LYYQ==" saltValue="W3ZIDZHqrWbSjAgjMP1bjA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>

--- a/Parameters/ShortFNNames.xlsx
+++ b/Parameters/ShortFNNames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ddd\04. Настройки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06819B5C-6D06-4359-9658-BFAF26D5A146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CD9D9C-E593-483D-BF70-85115EAE1AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,7 +518,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Parameters/ShortFNNames.xlsx
+++ b/Parameters/ShortFNNames.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ddd\04. Настройки\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CD9D9C-E593-483D-BF70-85115EAE1AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E920854-0F49-44EC-84D1-0BAE274C80BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -756,7 +751,6 @@
       <c r="B36" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="drfTskpo2IbinKXTc5SGdJSXSEkLGl+3lLzCqyQtguHcLpe906/q1NhiMtKu4nTwch5qdf71B6CeDNTRH6LYYQ==" saltValue="W3ZIDZHqrWbSjAgjMP1bjA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>

--- a/Parameters/ShortFNNames.xlsx
+++ b/Parameters/ShortFNNames.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E920854-0F49-44EC-84D1-0BAE274C80BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592CE4BE-6463-4D4D-8885-637F62BF88D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Департамент интегрированных систем управления</t>
   </si>
@@ -124,9 +124,6 @@
     <t>Центр BI</t>
   </si>
   <si>
-    <t>Центр портальных решений</t>
-  </si>
-  <si>
     <t>Центр систем промышленной безопасности и экологии</t>
   </si>
   <si>
@@ -152,6 +149,12 @@
   </si>
   <si>
     <t>ООД</t>
+  </si>
+  <si>
+    <t>Отдел портальных решений</t>
+  </si>
+  <si>
+    <t>Центр портальных решений (Old)</t>
   </si>
 </sst>
 </file>
@@ -512,9 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F53492B-E9B6-44FD-A10D-37455B40CAC6}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -532,167 +533,171 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>25</v>
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>

--- a/Parameters/ShortFNNames.xlsx
+++ b/Parameters/ShortFNNames.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592CE4BE-6463-4D4D-8885-637F62BF88D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFCD523-57D1-458A-B243-17DC6B9F6662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Департамент интегрированных систем управления</t>
   </si>
@@ -155,6 +155,15 @@
   </si>
   <si>
     <t>Центр портальных решений (Old)</t>
+  </si>
+  <si>
+    <t>Центр портальных решений</t>
+  </si>
+  <si>
+    <t>Отдел научно-исследовательских разработок</t>
+  </si>
+  <si>
+    <t>О.НИР</t>
   </si>
 </sst>
 </file>
@@ -513,9 +522,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F53492B-E9B6-44FD-A10D-37455B40CAC6}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -604,108 +616,116 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>39</v>
+      <c r="A11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>40</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
@@ -755,7 +775,18 @@
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
     </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B24">
+    <sortCondition ref="A2:A24"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>

--- a/Parameters/ShortFNNames.xlsx
+++ b/Parameters/ShortFNNames.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFCD523-57D1-458A-B243-17DC6B9F6662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D45290-B707-4ED3-933C-926169135954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
     <t>Департамент интегрированных систем управления</t>
   </si>
@@ -49,9 +49,6 @@
     <t>НИС</t>
   </si>
   <si>
-    <t>НПИС</t>
-  </si>
-  <si>
     <t>Направление профессиональных услуг</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
     <t>СПБиЭ</t>
   </si>
   <si>
-    <t>ПСП</t>
-  </si>
-  <si>
     <t>ПУ</t>
   </si>
   <si>
@@ -164,6 +158,54 @@
   </si>
   <si>
     <t>О.НИР</t>
+  </si>
+  <si>
+    <t>ООО "АрСи БиАй"</t>
+  </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>Системы управления производством</t>
+  </si>
+  <si>
+    <t>ДПИС</t>
+  </si>
+  <si>
+    <t>Системы контроля качества (СКК)</t>
+  </si>
+  <si>
+    <t>Системы управления производством (MES)</t>
+  </si>
+  <si>
+    <t>Системы промышленной безопасности и экологии (HSE)</t>
+  </si>
+  <si>
+    <t>Производственные системы геологоразведки и добычи (ГиД)</t>
+  </si>
+  <si>
+    <t>Корпоративные информационные системы (КИС)</t>
+  </si>
+  <si>
+    <t>Портальные решения (ПР)</t>
+  </si>
+  <si>
+    <t>Системы управления персоналом (НСМ)</t>
+  </si>
+  <si>
+    <t>Системы управления предприятием (ERP)</t>
+  </si>
+  <si>
+    <t>Системы бизнес-анализа (BI)</t>
+  </si>
+  <si>
+    <t>Профессиональные услуги (ПУ)</t>
+  </si>
+  <si>
+    <t>Департамент поддержки информационных систем</t>
+  </si>
+  <si>
+    <t>Отдел сопровождения систем геологоразведки и добычи</t>
   </si>
 </sst>
 </file>
@@ -195,7 +237,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,6 +256,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -228,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
@@ -239,6 +287,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -522,11 +573,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F53492B-E9B6-44FD-A10D-37455B40CAC6}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,10 +588,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -561,10 +612,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -577,211 +628,271 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-    </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
+      <c r="A38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B24">

--- a/Parameters/ShortFNNames.xlsx
+++ b/Parameters/ShortFNNames.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D45290-B707-4ED3-933C-926169135954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73723CFE-2378-4CEB-8037-E929458BB461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-11175" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,183 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
-  <si>
-    <t>Департамент интегрированных систем управления</t>
-  </si>
-  <si>
-    <t>ДИСУ</t>
-  </si>
-  <si>
-    <t>Департамент корпоративных и производственных систем</t>
-  </si>
-  <si>
-    <t>ДКиПС</t>
-  </si>
-  <si>
-    <t>Направление информационных систем</t>
-  </si>
-  <si>
-    <t>НИС</t>
-  </si>
-  <si>
-    <t>Направление профессиональных услуг</t>
-  </si>
-  <si>
-    <t>Направление разработки</t>
-  </si>
-  <si>
-    <t>НР</t>
-  </si>
-  <si>
-    <t>Направление систем контроля качества</t>
-  </si>
-  <si>
-    <t>Служба развития бизнеса</t>
-  </si>
-  <si>
-    <t>СРБ</t>
-  </si>
-  <si>
-    <t>Служба управления производством</t>
-  </si>
-  <si>
-    <t>СУП</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>FullFNName</t>
   </si>
   <si>
     <t>ShortFNName</t>
-  </si>
-  <si>
-    <t>Направление управления производством</t>
-  </si>
-  <si>
-    <t>Направление поддержки информационных систем</t>
-  </si>
-  <si>
-    <t>Департамент по работе с энергетической отраслью</t>
-  </si>
-  <si>
-    <t>Отдел обеспечения деятельности</t>
-  </si>
-  <si>
-    <t>HCM</t>
-  </si>
-  <si>
-    <t>ГиД</t>
-  </si>
-  <si>
-    <t>СКК</t>
-  </si>
-  <si>
-    <t>ERP</t>
-  </si>
-  <si>
-    <t>КИС</t>
-  </si>
-  <si>
-    <t>Центр корпоративных информационных систем</t>
-  </si>
-  <si>
-    <t>Центр HCM</t>
-  </si>
-  <si>
-    <t>Центр производственных систем геологоразведки и добычи</t>
-  </si>
-  <si>
-    <t>Центр ERP</t>
-  </si>
-  <si>
-    <t>Центр BI</t>
-  </si>
-  <si>
-    <t>Центр систем промышленной безопасности и экологии</t>
-  </si>
-  <si>
-    <t>Центр производственных систем переработки</t>
-  </si>
-  <si>
-    <t>BI</t>
-  </si>
-  <si>
-    <t>Порталы</t>
-  </si>
-  <si>
-    <t>СПБиЭ</t>
-  </si>
-  <si>
-    <t>ПУ</t>
-  </si>
-  <si>
-    <t>ДРЭО</t>
-  </si>
-  <si>
-    <t>ООД</t>
-  </si>
-  <si>
-    <t>Отдел портальных решений</t>
-  </si>
-  <si>
-    <t>Центр портальных решений (Old)</t>
-  </si>
-  <si>
-    <t>Центр портальных решений</t>
-  </si>
-  <si>
-    <t>Отдел научно-исследовательских разработок</t>
-  </si>
-  <si>
-    <t>О.НИР</t>
-  </si>
-  <si>
-    <t>ООО "АрСи БиАй"</t>
-  </si>
-  <si>
-    <t>MES</t>
-  </si>
-  <si>
-    <t>Системы управления производством</t>
-  </si>
-  <si>
-    <t>ДПИС</t>
-  </si>
-  <si>
-    <t>Системы контроля качества (СКК)</t>
-  </si>
-  <si>
-    <t>Системы управления производством (MES)</t>
-  </si>
-  <si>
-    <t>Системы промышленной безопасности и экологии (HSE)</t>
-  </si>
-  <si>
-    <t>Производственные системы геологоразведки и добычи (ГиД)</t>
-  </si>
-  <si>
-    <t>Корпоративные информационные системы (КИС)</t>
-  </si>
-  <si>
-    <t>Портальные решения (ПР)</t>
-  </si>
-  <si>
-    <t>Системы управления персоналом (НСМ)</t>
-  </si>
-  <si>
-    <t>Системы управления предприятием (ERP)</t>
-  </si>
-  <si>
-    <t>Системы бизнес-анализа (BI)</t>
-  </si>
-  <si>
-    <t>Профессиональные услуги (ПУ)</t>
-  </si>
-  <si>
-    <t>Департамент поддержки информационных систем</t>
-  </si>
-  <si>
-    <t>Отдел сопровождения систем геологоразведки и добычи</t>
   </si>
 </sst>
 </file>
@@ -237,7 +66,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,12 +85,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -276,7 +99,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
@@ -284,12 +107,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -573,11 +390,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F53492B-E9B6-44FD-A10D-37455B40CAC6}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,311 +405,167 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B24">
